--- a/Auxiliary tool/bin/Debug/Exam145Score.xlsx
+++ b/Auxiliary tool/bin/Debug/Exam145Score.xlsx
@@ -16,12 +16,12 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
     <sheet name="100" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="129">
   <si>
     <t>考号</t>
   </si>
@@ -417,6 +417,18 @@
     <t>2022.11.26</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>2022/11/15_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022/11/22_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022/11/25_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -9565,21 +9577,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="AM1:AO1"/>
+    <mergeCell ref="AP1:AR1"/>
+    <mergeCell ref="AS1:AU1"/>
     <mergeCell ref="AJ1:AL1"/>
     <mergeCell ref="AG1:AI1"/>
     <mergeCell ref="AA1:AC1"/>
     <mergeCell ref="AD1:AF1"/>
     <mergeCell ref="X1:Z1"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="AM1:AO1"/>
-    <mergeCell ref="AP1:AR1"/>
-    <mergeCell ref="AS1:AU1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="O1:Q1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9592,8 +9604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="96" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -9615,8 +9627,8 @@
       <c r="C1" s="14">
         <v>44880</v>
       </c>
-      <c r="D1" s="14">
-        <v>44880</v>
+      <c r="D1" s="14" t="s">
+        <v>126</v>
       </c>
       <c r="E1" s="14">
         <v>44881</v>
@@ -9636,8 +9648,8 @@
       <c r="J1" s="14">
         <v>44887</v>
       </c>
-      <c r="K1" s="14">
-        <v>44887</v>
+      <c r="K1" s="14" t="s">
+        <v>127</v>
       </c>
       <c r="L1" s="14">
         <v>44888</v>
@@ -9648,8 +9660,8 @@
       <c r="N1" s="14">
         <v>44890</v>
       </c>
-      <c r="O1" s="14">
-        <v>44890</v>
+      <c r="O1" s="14" t="s">
+        <v>128</v>
       </c>
       <c r="P1" s="14">
         <v>44891</v>

--- a/Auxiliary tool/bin/Debug/Exam145Score.xlsx
+++ b/Auxiliary tool/bin/Debug/Exam145Score.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="40" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="100" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alldata" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="40" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="100" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Alldata" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -437,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:C1048576"/>
@@ -461,6 +461,21 @@
           <t>2023/03/29</t>
         </is>
       </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>2023/04/03</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>2023/04/08</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>2023/04/10</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -474,6 +489,15 @@
       <c r="C2" t="n">
         <v>-0.08162102415954334</v>
       </c>
+      <c r="D2" t="n">
+        <v>1.178054964093749</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.202943449192611</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-0.1838939651126913</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -487,6 +511,15 @@
       <c r="C3" t="n">
         <v>-0.08162102415954334</v>
       </c>
+      <c r="D3" t="n">
+        <v>0.4886388146754359</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-2.463782572410536</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.4326916826180974</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -500,6 +533,15 @@
       <c r="C4" t="n">
         <v>0.1632420483190862</v>
       </c>
+      <c r="D4" t="n">
+        <v>2.143237573279387</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-0.3859711601687525</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.049277330348886</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -513,6 +555,15 @@
       <c r="C5" t="n">
         <v>0.1632420483190862</v>
       </c>
+      <c r="D5" t="n">
+        <v>-0.2007773347428769</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.5918224455920869</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.1838939651126913</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -526,6 +577,15 @@
       <c r="C6" t="n">
         <v>1.387557410712234</v>
       </c>
+      <c r="D6" t="n">
+        <v>0.764405274442761</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-0.3859711601687525</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.8004796128434801</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -539,6 +599,15 @@
       <c r="C7" t="n">
         <v>0.5305366570370306</v>
       </c>
+      <c r="D7" t="n">
+        <v>-0.2007773347428769</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-0.3859711601687525</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.1838939651126913</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -552,6 +621,15 @@
       <c r="C8" t="n">
         <v>1.142694338233605</v>
       </c>
+      <c r="D8" t="n">
+        <v>-0.6144270243938645</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.469598244871982</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.049277330348886</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -565,6 +643,15 @@
       <c r="C9" t="n">
         <v>1.387557410712234</v>
       </c>
+      <c r="D9" t="n">
+        <v>0.764405274442761</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8362708470322967</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.049277330348886</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -578,6 +665,15 @@
       <c r="C10" t="n">
         <v>1.387557410712234</v>
       </c>
+      <c r="D10" t="n">
+        <v>-2.682675472648803</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.469598244871982</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.049277330348886</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -591,6 +687,15 @@
       <c r="C11" t="n">
         <v>0.1632420483190862</v>
       </c>
+      <c r="D11" t="n">
+        <v>1.591704653744736</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.1838939651126913</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -604,6 +709,15 @@
       <c r="C12" t="n">
         <v>-1.918094067749265</v>
       </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-1.241540565209487</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.1838939651126913</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -617,6 +731,15 @@
       <c r="C13" t="n">
         <v>-0.4489156328774877</v>
       </c>
+      <c r="D13" t="n">
+        <v>1.867471113512061</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.447391850632821</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.1838939651126913</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -630,6 +753,15 @@
       <c r="C14" t="n">
         <v>0.5305366570370306</v>
       </c>
+      <c r="D14" t="n">
+        <v>-0.2007773347428769</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.5918224455920869</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1.049277330348886</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -643,6 +775,15 @@
       <c r="C15" t="n">
         <v>0.7753997295156602</v>
       </c>
+      <c r="D15" t="n">
+        <v>0.4886388146754359</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.2251498434317721</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-2.650236556035846</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -656,6 +797,15 @@
       <c r="C16" t="n">
         <v>0.5305366570370306</v>
       </c>
+      <c r="D16" t="n">
+        <v>0.2128723549081108</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.2251498434317721</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-0.1838939651126913</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -669,6 +819,15 @@
       <c r="C17" t="n">
         <v>-0.08162102415954334</v>
       </c>
+      <c r="D17" t="n">
+        <v>0.2128723549081108</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.469598244871982</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1.049277330348886</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -682,6 +841,15 @@
       <c r="C18" t="n">
         <v>-0.6937787053561173</v>
       </c>
+      <c r="D18" t="n">
+        <v>0.4886388146754359</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-1.241540565209487</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-0.1838939651126913</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -695,6 +863,15 @@
       <c r="C19" t="n">
         <v>-0.4489156328774877</v>
       </c>
+      <c r="D19" t="n">
+        <v>0.2128723549081108</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-0.1415227587285427</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1.049277330348886</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -708,6 +885,15 @@
       <c r="C20" t="n">
         <v>-0.08162102415954334</v>
       </c>
+      <c r="D20" t="n">
+        <v>1.591704653744736</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.2251498434317721</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.4326916826180974</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -721,6 +907,15 @@
       <c r="C21" t="n">
         <v>-0.08162102415954334</v>
       </c>
+      <c r="D21" t="n">
+        <v>0.4886388146754359</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.2251498434317721</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-0.1838939651126913</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -734,6 +929,15 @@
       <c r="C22" t="n">
         <v>0.285673584558401</v>
       </c>
+      <c r="D22" t="n">
+        <v>0.2128723549081108</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-0.01929855800843773</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-0.1838939651126913</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -747,6 +951,15 @@
       <c r="C23" t="n">
         <v>1.387557410712234</v>
       </c>
+      <c r="D23" t="n">
+        <v>-0.2007773347428769</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.5918224455920869</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1.665862978079675</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -760,6 +973,15 @@
       <c r="C24" t="n">
         <v>-0.4489156328774877</v>
       </c>
+      <c r="D24" t="n">
+        <v>-0.6144270243938645</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-0.1415227587285427</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1.049277330348886</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -773,6 +995,15 @@
       <c r="C25" t="n">
         <v>1.509988946951549</v>
       </c>
+      <c r="D25" t="n">
+        <v>0.9022885043264236</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.469598244871982</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1.049277330348886</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -786,6 +1017,15 @@
       <c r="C26" t="n">
         <v>-1.061073314074062</v>
       </c>
+      <c r="D26" t="n">
+        <v>0.07498912502444822</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-0.9970921637692771</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-0.1838939651126913</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -799,6 +1039,15 @@
       <c r="C27" t="n">
         <v>-0.6937787053561173</v>
       </c>
+      <c r="D27" t="n">
+        <v>0.2128723549081108</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1.080719248472507</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.4326916826180974</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -812,6 +1061,15 @@
       <c r="C28" t="n">
         <v>-0.4489156328774877</v>
       </c>
+      <c r="D28" t="n">
+        <v>0.2128723549081108</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.469598244871982</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-0.1838939651126913</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -825,6 +1083,15 @@
       <c r="C29" t="n">
         <v>1.142694338233605</v>
       </c>
+      <c r="D29" t="n">
+        <v>-0.2007773347428769</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-1.241540565209487</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-0.1838939651126913</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -838,6 +1105,15 @@
       <c r="C30" t="n">
         <v>-1.673230995270635</v>
       </c>
+      <c r="D30" t="n">
+        <v>-0.8901934841611897</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.2251498434317721</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-0.1838939651126913</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -851,6 +1127,15 @@
       <c r="C31" t="n">
         <v>-0.6937787053561173</v>
       </c>
+      <c r="D31" t="n">
+        <v>-0.2007773347428769</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-1.241540565209487</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.4326916826180974</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -864,6 +1149,15 @@
       <c r="C32" t="n">
         <v>0.897831265754975</v>
       </c>
+      <c r="D32" t="n">
+        <v>0.07498912502444822</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1.691840252073031</v>
+      </c>
+      <c r="F32" t="n">
+        <v>-0.1838939651126913</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -877,6 +1171,15 @@
       <c r="C33" t="n">
         <v>-0.6937787053561173</v>
       </c>
+      <c r="D33" t="n">
+        <v>-0.2007773347428769</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.469598244871982</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.4326916826180974</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -890,6 +1193,15 @@
       <c r="C34" t="n">
         <v>0.1632420483190862</v>
       </c>
+      <c r="D34" t="n">
+        <v>0.764405274442761</v>
+      </c>
+      <c r="E34" t="n">
+        <v>-0.6304195616089624</v>
+      </c>
+      <c r="F34" t="n">
+        <v>-0.1838939651126913</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -903,6 +1215,15 @@
       <c r="C35" t="n">
         <v>-0.4489156328774877</v>
       </c>
+      <c r="D35" t="n">
+        <v>-0.2007773347428769</v>
+      </c>
+      <c r="E35" t="n">
+        <v>-0.3859711601687525</v>
+      </c>
+      <c r="F35" t="n">
+        <v>-0.1838939651126913</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -916,6 +1237,15 @@
       <c r="C36" t="n">
         <v>0.7753997295156602</v>
       </c>
+      <c r="D36" t="n">
+        <v>-0.476543794510202</v>
+      </c>
+      <c r="E36" t="n">
+        <v>-0.9970921637692771</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1.665862978079675</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -929,6 +1259,15 @@
       <c r="C37" t="n">
         <v>0.7753997295156602</v>
       </c>
+      <c r="D37" t="n">
+        <v>-0.2007773347428769</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.5918224455920869</v>
+      </c>
+      <c r="F37" t="n">
+        <v>-0.1838939651126913</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -942,6 +1281,15 @@
       <c r="C38" t="n">
         <v>1.142694338233605</v>
       </c>
+      <c r="D38" t="n">
+        <v>0.9022885043264236</v>
+      </c>
+      <c r="E38" t="n">
+        <v>-0.1415227587285427</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.4326916826180974</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -955,6 +1303,15 @@
       <c r="C39" t="n">
         <v>-1.673230995270635</v>
       </c>
+      <c r="D39" t="n">
+        <v>-0.2007773347428769</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1.080719248472507</v>
+      </c>
+      <c r="F39" t="n">
+        <v>-0.1838939651126913</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -968,6 +1325,15 @@
       <c r="C40" t="n">
         <v>1.142694338233605</v>
       </c>
+      <c r="D40" t="n">
+        <v>-0.6144270243938645</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.2251498434317721</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.4326916826180974</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -981,6 +1347,15 @@
       <c r="C41" t="n">
         <v>0</v>
       </c>
+      <c r="D41" t="n">
+        <v>0.2128723549081108</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.2251498434317721</v>
+      </c>
+      <c r="F41" t="n">
+        <v>-0.1838939651126913</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -994,6 +1369,15 @@
       <c r="C42" t="n">
         <v>0.1632420483190862</v>
       </c>
+      <c r="D42" t="n">
+        <v>-0.2007773347428769</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.8362708470322967</v>
+      </c>
+      <c r="F42" t="n">
+        <v>-0.1838939651126913</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1007,6 +1391,15 @@
       <c r="C43" t="n">
         <v>1.142694338233605</v>
       </c>
+      <c r="D43" t="n">
+        <v>-0.6144270243938645</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1.080719248472507</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1.049277330348886</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1020,6 +1413,15 @@
       <c r="C44" t="n">
         <v>-0.6937787053561173</v>
       </c>
+      <c r="D44" t="n">
+        <v>0.4886388146754359</v>
+      </c>
+      <c r="E44" t="n">
+        <v>-0.1415227587285427</v>
+      </c>
+      <c r="F44" t="n">
+        <v>-1.417065260574269</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1033,6 +1435,15 @@
       <c r="C45" t="n">
         <v>-1.673230995270635</v>
       </c>
+      <c r="D45" t="n">
+        <v>0.2128723549081108</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1.080719248472507</v>
+      </c>
+      <c r="F45" t="n">
+        <v>-0.1838939651126913</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1046,6 +1457,15 @@
       <c r="C46" t="n">
         <v>0.5305366570370306</v>
       </c>
+      <c r="D46" t="n">
+        <v>-0.2007773347428769</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.8362708470322967</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.4326916826180974</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1059,6 +1479,15 @@
       <c r="C47" t="n">
         <v>-0.4489156328774877</v>
       </c>
+      <c r="D47" t="n">
+        <v>0.2128723549081108</v>
+      </c>
+      <c r="E47" t="n">
+        <v>-0.01929855800843773</v>
+      </c>
+      <c r="F47" t="n">
+        <v>-0.1838939651126913</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1072,6 +1501,15 @@
       <c r="C48" t="n">
         <v>0.285673584558401</v>
       </c>
+      <c r="D48" t="n">
+        <v>1.591704653744736</v>
+      </c>
+      <c r="E48" t="n">
+        <v>-0.7526437623290673</v>
+      </c>
+      <c r="F48" t="n">
+        <v>-0.8004796128434801</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1085,6 +1523,15 @@
       <c r="C49" t="n">
         <v>-0.08162102415954334</v>
       </c>
+      <c r="D49" t="n">
+        <v>-0.2007773347428769</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.2251498434317721</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-0.1838939651126913</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1098,6 +1545,15 @@
       <c r="C50" t="n">
         <v>1.142694338233605</v>
       </c>
+      <c r="D50" t="n">
+        <v>-0.2007773347428769</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.5918224455920869</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1.049277330348886</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1111,6 +1567,15 @@
       <c r="C51" t="n">
         <v>-0.08162102415954334</v>
       </c>
+      <c r="D51" t="n">
+        <v>0.4886388146754359</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.2251498434317721</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.4326916826180974</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1124,6 +1589,15 @@
       <c r="C52" t="n">
         <v>0.7753997295156602</v>
       </c>
+      <c r="D52" t="n">
+        <v>-2.682675472648803</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.5918224455920869</v>
+      </c>
+      <c r="F52" t="n">
+        <v>-2.650236556035846</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1137,6 +1611,15 @@
       <c r="C53" t="n">
         <v>0.7753997295156602</v>
       </c>
+      <c r="D53" t="n">
+        <v>-2.682675472648803</v>
+      </c>
+      <c r="E53" t="n">
+        <v>-2.463782572410536</v>
+      </c>
+      <c r="F53" t="n">
+        <v>-2.650236556035846</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1150,6 +1633,15 @@
       <c r="C54" t="n">
         <v>0.5305366570370306</v>
       </c>
+      <c r="D54" t="n">
+        <v>-0.2007773347428769</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1.691840252073031</v>
+      </c>
+      <c r="F54" t="n">
+        <v>1.049277330348886</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1163,6 +1655,15 @@
       <c r="C55" t="n">
         <v>-1.061073314074062</v>
       </c>
+      <c r="D55" t="n">
+        <v>0.4886388146754359</v>
+      </c>
+      <c r="E55" t="n">
+        <v>-1.852661568810012</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.4326916826180974</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1176,6 +1677,15 @@
       <c r="C56" t="n">
         <v>-0.08162102415954334</v>
       </c>
+      <c r="D56" t="n">
+        <v>-0.8901934841611897</v>
+      </c>
+      <c r="E56" t="n">
+        <v>-0.1415227587285427</v>
+      </c>
+      <c r="F56" t="n">
+        <v>-0.1838939651126913</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1189,6 +1699,15 @@
       <c r="C57" t="n">
         <v>-2.28538867646721</v>
       </c>
+      <c r="D57" t="n">
+        <v>0.2128723549081108</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.8362708470322967</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1201,6 +1720,15 @@
       </c>
       <c r="C58" t="n">
         <v>-2.28538867646721</v>
+      </c>
+      <c r="D58" t="n">
+        <v>-2.682675472648803</v>
+      </c>
+      <c r="E58" t="n">
+        <v>-2.463782572410536</v>
+      </c>
+      <c r="F58" t="n">
+        <v>-2.650236556035846</v>
       </c>
     </row>
   </sheetData>
@@ -1992,7 +2520,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N59"/>
+  <dimension ref="A1:W59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
@@ -2025,6 +2553,21 @@
           <t>2023/03/30</t>
         </is>
       </c>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>2023/04/03</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="inlineStr">
+        <is>
+          <t>2023/04/08</t>
+        </is>
+      </c>
+      <c r="U1" s="3" t="inlineStr">
+        <is>
+          <t>2023/04/10</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -2093,6 +2636,51 @@
         </is>
       </c>
       <c r="N2" t="inlineStr">
+        <is>
+          <t>成绩占比</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>理论满分</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>原始成绩</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>成绩占比</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>理论满分</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>原始成绩</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>成绩占比</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>理论满分</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>原始成绩</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
         <is>
           <t>成绩占比</t>
         </is>
@@ -2143,6 +2731,33 @@
       <c r="N3" s="4" t="n">
         <v>1.237626694621991</v>
       </c>
+      <c r="O3" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>1.178054964093749</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>1.202943449192611</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>45</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>-0.1838939651126913</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -2189,6 +2804,33 @@
       <c r="N4" s="4" t="n">
         <v>1.299076800539634</v>
       </c>
+      <c r="O4" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>0.4886388146754359</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>-2.463782572410536</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>45</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>0.4326916826180974</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -2235,6 +2877,33 @@
       <c r="N5" s="4" t="n">
         <v>0.6845757413632093</v>
       </c>
+      <c r="O5" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>35</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>2.143237573279387</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>17</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>-0.3859711601687525</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>45</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>1.049277330348886</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -2281,6 +2950,33 @@
       <c r="N6" s="4" t="n">
         <v>1.360526906457276</v>
       </c>
+      <c r="O6" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>-0.2007773347428769</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>0.5918224455920869</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>45</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>-0.1838939651126913</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -2327,6 +3023,33 @@
       <c r="N7" s="4" t="n">
         <v>0.500225423610282</v>
       </c>
+      <c r="O7" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="P7" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q7" s="4" t="n">
+        <v>0.764405274442761</v>
+      </c>
+      <c r="R7" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="S7" s="4" t="n">
+        <v>17</v>
+      </c>
+      <c r="T7" s="4" t="n">
+        <v>-0.3859711601687525</v>
+      </c>
+      <c r="U7" s="4" t="n">
+        <v>45</v>
+      </c>
+      <c r="V7" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="W7" s="4" t="n">
+        <v>-0.8004796128434801</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -2373,6 +3096,33 @@
       <c r="N8" s="4" t="n">
         <v>1.72922754196313</v>
       </c>
+      <c r="O8" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="P8" s="4" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q8" s="4" t="n">
+        <v>-0.2007773347428769</v>
+      </c>
+      <c r="R8" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="S8" s="4" t="n">
+        <v>17</v>
+      </c>
+      <c r="T8" s="4" t="n">
+        <v>-0.3859711601687525</v>
+      </c>
+      <c r="U8" s="4" t="n">
+        <v>45</v>
+      </c>
+      <c r="V8" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="W8" s="4" t="n">
+        <v>-0.1838939651126913</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -2419,6 +3169,33 @@
       <c r="N9" s="4" t="n">
         <v>0.5616755295279244</v>
       </c>
+      <c r="O9" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="P9" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q9" s="4" t="n">
+        <v>-0.6144270243938645</v>
+      </c>
+      <c r="R9" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="S9" s="4" t="n">
+        <v>24</v>
+      </c>
+      <c r="T9" s="4" t="n">
+        <v>0.469598244871982</v>
+      </c>
+      <c r="U9" s="4" t="n">
+        <v>45</v>
+      </c>
+      <c r="V9" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="W9" s="4" t="n">
+        <v>1.049277330348886</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -2465,6 +3242,33 @@
       <c r="N10" s="4" t="n">
         <v>1.176176588704349</v>
       </c>
+      <c r="O10" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="P10" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q10" s="4" t="n">
+        <v>0.764405274442761</v>
+      </c>
+      <c r="R10" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="S10" s="4" t="n">
+        <v>27</v>
+      </c>
+      <c r="T10" s="4" t="n">
+        <v>0.8362708470322967</v>
+      </c>
+      <c r="U10" s="4" t="n">
+        <v>45</v>
+      </c>
+      <c r="V10" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="W10" s="4" t="n">
+        <v>1.049277330348886</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -2511,6 +3315,33 @@
       <c r="N11" s="4" t="n">
         <v>0.2544249999397123</v>
       </c>
+      <c r="O11" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="P11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="4" t="n">
+        <v>-2.682675472648803</v>
+      </c>
+      <c r="R11" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="S11" s="4" t="n">
+        <v>24</v>
+      </c>
+      <c r="T11" s="4" t="n">
+        <v>0.469598244871982</v>
+      </c>
+      <c r="U11" s="4" t="n">
+        <v>45</v>
+      </c>
+      <c r="V11" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="W11" s="4" t="n">
+        <v>1.049277330348886</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -2557,6 +3388,27 @@
       <c r="N12" s="4" t="n">
         <v>-0.05282552964849982</v>
       </c>
+      <c r="O12" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="P12" s="4" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q12" s="4" t="n">
+        <v>1.591704653744736</v>
+      </c>
+      <c r="R12" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="U12" s="4" t="n">
+        <v>45</v>
+      </c>
+      <c r="V12" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="W12" s="4" t="n">
+        <v>-0.1838939651126913</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -2603,6 +3455,27 @@
       <c r="N13" s="4" t="n">
         <v>-1.036027224330779</v>
       </c>
+      <c r="O13" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="R13" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="S13" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="T13" s="4" t="n">
+        <v>-1.241540565209487</v>
+      </c>
+      <c r="U13" s="4" t="n">
+        <v>45</v>
+      </c>
+      <c r="V13" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="W13" s="4" t="n">
+        <v>-0.1838939651126913</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -2649,6 +3522,33 @@
       <c r="N14" s="4" t="n">
         <v>0.7460258472808516</v>
       </c>
+      <c r="O14" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="P14" s="4" t="n">
+        <v>33</v>
+      </c>
+      <c r="Q14" s="4" t="n">
+        <v>1.867471113512061</v>
+      </c>
+      <c r="R14" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="S14" s="4" t="n">
+        <v>32</v>
+      </c>
+      <c r="T14" s="4" t="n">
+        <v>1.447391850632821</v>
+      </c>
+      <c r="U14" s="4" t="n">
+        <v>45</v>
+      </c>
+      <c r="V14" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="W14" s="4" t="n">
+        <v>-0.1838939651126913</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -2689,6 +3589,33 @@
       <c r="N15" s="4" t="n">
         <v>-0.5444263769896392</v>
       </c>
+      <c r="O15" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="P15" s="4" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q15" s="4" t="n">
+        <v>-0.2007773347428769</v>
+      </c>
+      <c r="R15" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="S15" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="T15" s="4" t="n">
+        <v>0.5918224455920869</v>
+      </c>
+      <c r="U15" s="4" t="n">
+        <v>45</v>
+      </c>
+      <c r="V15" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="W15" s="4" t="n">
+        <v>1.049277330348886</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -2735,6 +3662,33 @@
       <c r="N16" s="4" t="n">
         <v>-0.3600760592367119</v>
       </c>
+      <c r="O16" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="P16" s="4" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q16" s="4" t="n">
+        <v>0.4886388146754359</v>
+      </c>
+      <c r="R16" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="S16" s="4" t="n">
+        <v>22</v>
+      </c>
+      <c r="T16" s="4" t="n">
+        <v>0.2251498434317721</v>
+      </c>
+      <c r="U16" s="4" t="n">
+        <v>45</v>
+      </c>
+      <c r="V16" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" s="4" t="n">
+        <v>-2.650236556035846</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -2781,6 +3735,33 @@
       <c r="N17" s="4" t="n">
         <v>0.4387753176926396</v>
       </c>
+      <c r="O17" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="P17" s="4" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q17" s="4" t="n">
+        <v>0.2128723549081108</v>
+      </c>
+      <c r="R17" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="S17" s="4" t="n">
+        <v>22</v>
+      </c>
+      <c r="T17" s="4" t="n">
+        <v>0.2251498434317721</v>
+      </c>
+      <c r="U17" s="4" t="n">
+        <v>45</v>
+      </c>
+      <c r="V17" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="W17" s="4" t="n">
+        <v>-0.1838939651126913</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -2827,6 +3808,33 @@
       <c r="N18" s="4" t="n">
         <v>1.176176588704349</v>
       </c>
+      <c r="O18" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="P18" s="4" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q18" s="4" t="n">
+        <v>0.2128723549081108</v>
+      </c>
+      <c r="R18" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="S18" s="4" t="n">
+        <v>24</v>
+      </c>
+      <c r="T18" s="4" t="n">
+        <v>0.469598244871982</v>
+      </c>
+      <c r="U18" s="4" t="n">
+        <v>45</v>
+      </c>
+      <c r="V18" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="W18" s="4" t="n">
+        <v>1.049277330348886</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -2873,6 +3881,33 @@
       <c r="N19" s="4" t="n">
         <v>0.4387753176926396</v>
       </c>
+      <c r="O19" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="P19" s="4" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q19" s="4" t="n">
+        <v>0.4886388146754359</v>
+      </c>
+      <c r="R19" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="S19" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="T19" s="4" t="n">
+        <v>-1.241540565209487</v>
+      </c>
+      <c r="U19" s="4" t="n">
+        <v>45</v>
+      </c>
+      <c r="V19" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="W19" s="4" t="n">
+        <v>-0.1838939651126913</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -2919,6 +3954,33 @@
       <c r="N20" s="4" t="n">
         <v>-0.667326588824924</v>
       </c>
+      <c r="O20" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="P20" s="4" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q20" s="4" t="n">
+        <v>0.2128723549081108</v>
+      </c>
+      <c r="R20" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="S20" s="4" t="n">
+        <v>19</v>
+      </c>
+      <c r="T20" s="4" t="n">
+        <v>-0.1415227587285427</v>
+      </c>
+      <c r="U20" s="4" t="n">
+        <v>45</v>
+      </c>
+      <c r="V20" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="W20" s="4" t="n">
+        <v>1.049277330348886</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -2965,6 +4027,33 @@
       <c r="N21" s="4" t="n">
         <v>0.1315247881044274</v>
       </c>
+      <c r="O21" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="P21" s="4" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q21" s="4" t="n">
+        <v>1.591704653744736</v>
+      </c>
+      <c r="R21" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="S21" s="4" t="n">
+        <v>22</v>
+      </c>
+      <c r="T21" s="4" t="n">
+        <v>0.2251498434317721</v>
+      </c>
+      <c r="U21" s="4" t="n">
+        <v>45</v>
+      </c>
+      <c r="V21" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="W21" s="4" t="n">
+        <v>0.4326916826180974</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -3011,6 +4100,33 @@
       <c r="N22" s="4" t="n">
         <v>-0.667326588824924</v>
       </c>
+      <c r="O22" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="P22" s="4" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q22" s="4" t="n">
+        <v>0.4886388146754359</v>
+      </c>
+      <c r="R22" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="S22" s="4" t="n">
+        <v>22</v>
+      </c>
+      <c r="T22" s="4" t="n">
+        <v>0.2251498434317721</v>
+      </c>
+      <c r="U22" s="4" t="n">
+        <v>45</v>
+      </c>
+      <c r="V22" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="W22" s="4" t="n">
+        <v>-0.1838939651126913</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -3051,6 +4167,33 @@
       <c r="L23" s="4" t="n">
         <v>80</v>
       </c>
+      <c r="O23" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="P23" s="4" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q23" s="4" t="n">
+        <v>0.2128723549081108</v>
+      </c>
+      <c r="R23" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="S23" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="T23" s="4" t="n">
+        <v>-0.01929855800843773</v>
+      </c>
+      <c r="U23" s="4" t="n">
+        <v>45</v>
+      </c>
+      <c r="V23" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="W23" s="4" t="n">
+        <v>-0.1838939651126913</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -3097,6 +4240,33 @@
       <c r="N24" s="4" t="n">
         <v>0.9918262709514214</v>
       </c>
+      <c r="O24" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="P24" s="4" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q24" s="4" t="n">
+        <v>-0.2007773347428769</v>
+      </c>
+      <c r="R24" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="S24" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="T24" s="4" t="n">
+        <v>0.5918224455920869</v>
+      </c>
+      <c r="U24" s="4" t="n">
+        <v>45</v>
+      </c>
+      <c r="V24" s="4" t="n">
+        <v>35</v>
+      </c>
+      <c r="W24" s="4" t="n">
+        <v>1.665862978079675</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -3143,6 +4313,33 @@
       <c r="N25" s="4" t="n">
         <v>-0.5444263769896392</v>
       </c>
+      <c r="O25" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="P25" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q25" s="4" t="n">
+        <v>-0.6144270243938645</v>
+      </c>
+      <c r="R25" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="S25" s="4" t="n">
+        <v>19</v>
+      </c>
+      <c r="T25" s="4" t="n">
+        <v>-0.1415227587285427</v>
+      </c>
+      <c r="U25" s="4" t="n">
+        <v>45</v>
+      </c>
+      <c r="V25" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="W25" s="4" t="n">
+        <v>1.049277330348886</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -3189,6 +4386,33 @@
       <c r="N26" s="4" t="n">
         <v>-0.5444263769896392</v>
       </c>
+      <c r="O26" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="P26" s="4" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q26" s="4" t="n">
+        <v>0.9022885043264236</v>
+      </c>
+      <c r="R26" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="S26" s="4" t="n">
+        <v>24</v>
+      </c>
+      <c r="T26" s="4" t="n">
+        <v>0.469598244871982</v>
+      </c>
+      <c r="U26" s="4" t="n">
+        <v>45</v>
+      </c>
+      <c r="V26" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="W26" s="4" t="n">
+        <v>1.049277330348886</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -3235,6 +4459,33 @@
       <c r="N27" s="4" t="n">
         <v>0.07007468218678503</v>
       </c>
+      <c r="O27" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="P27" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q27" s="4" t="n">
+        <v>0.07498912502444822</v>
+      </c>
+      <c r="R27" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="S27" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="T27" s="4" t="n">
+        <v>-0.9970921637692771</v>
+      </c>
+      <c r="U27" s="4" t="n">
+        <v>45</v>
+      </c>
+      <c r="V27" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="W27" s="4" t="n">
+        <v>-0.1838939651126913</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -3281,6 +4532,33 @@
       <c r="N28" s="4" t="n">
         <v>0.2544249999397123</v>
       </c>
+      <c r="O28" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="P28" s="4" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q28" s="4" t="n">
+        <v>0.2128723549081108</v>
+      </c>
+      <c r="R28" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="S28" s="4" t="n">
+        <v>29</v>
+      </c>
+      <c r="T28" s="4" t="n">
+        <v>1.080719248472507</v>
+      </c>
+      <c r="U28" s="4" t="n">
+        <v>45</v>
+      </c>
+      <c r="V28" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="W28" s="4" t="n">
+        <v>0.4326916826180974</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -3327,6 +4605,33 @@
       <c r="N29" s="4" t="n">
         <v>-1.097477330248421</v>
       </c>
+      <c r="O29" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="P29" s="4" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q29" s="4" t="n">
+        <v>0.2128723549081108</v>
+      </c>
+      <c r="R29" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="S29" s="4" t="n">
+        <v>24</v>
+      </c>
+      <c r="T29" s="4" t="n">
+        <v>0.469598244871982</v>
+      </c>
+      <c r="U29" s="4" t="n">
+        <v>45</v>
+      </c>
+      <c r="V29" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="W29" s="4" t="n">
+        <v>-0.1838939651126913</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -3373,6 +4678,33 @@
       <c r="N30" s="4" t="n">
         <v>-0.3600760592367119</v>
       </c>
+      <c r="O30" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="P30" s="4" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q30" s="4" t="n">
+        <v>-0.2007773347428769</v>
+      </c>
+      <c r="R30" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="S30" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="T30" s="4" t="n">
+        <v>-1.241540565209487</v>
+      </c>
+      <c r="U30" s="4" t="n">
+        <v>45</v>
+      </c>
+      <c r="V30" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="W30" s="4" t="n">
+        <v>-0.1838939651126913</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -3419,6 +4751,33 @@
       <c r="N31" s="4" t="n">
         <v>0.2544249999397123</v>
       </c>
+      <c r="O31" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="P31" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q31" s="4" t="n">
+        <v>-0.8901934841611897</v>
+      </c>
+      <c r="R31" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="S31" s="4" t="n">
+        <v>22</v>
+      </c>
+      <c r="T31" s="4" t="n">
+        <v>0.2251498434317721</v>
+      </c>
+      <c r="U31" s="4" t="n">
+        <v>45</v>
+      </c>
+      <c r="V31" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="W31" s="4" t="n">
+        <v>-0.1838939651126913</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -3465,6 +4824,33 @@
       <c r="N32" s="4" t="n">
         <v>-0.1757257414837847</v>
       </c>
+      <c r="O32" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="P32" s="4" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q32" s="4" t="n">
+        <v>-0.2007773347428769</v>
+      </c>
+      <c r="R32" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="S32" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="T32" s="4" t="n">
+        <v>-1.241540565209487</v>
+      </c>
+      <c r="U32" s="4" t="n">
+        <v>45</v>
+      </c>
+      <c r="V32" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="W32" s="4" t="n">
+        <v>0.4326916826180974</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -3511,6 +4897,33 @@
       <c r="N33" s="4" t="n">
         <v>0.8074759531984941</v>
       </c>
+      <c r="O33" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="P33" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q33" s="4" t="n">
+        <v>0.07498912502444822</v>
+      </c>
+      <c r="R33" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="S33" s="4" t="n">
+        <v>34</v>
+      </c>
+      <c r="T33" s="4" t="n">
+        <v>1.691840252073031</v>
+      </c>
+      <c r="U33" s="4" t="n">
+        <v>45</v>
+      </c>
+      <c r="V33" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="W33" s="4" t="n">
+        <v>-0.1838939651126913</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -3557,6 +4970,33 @@
       <c r="N34" s="4" t="n">
         <v>-0.1757257414837847</v>
       </c>
+      <c r="O34" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="P34" s="4" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q34" s="4" t="n">
+        <v>-0.2007773347428769</v>
+      </c>
+      <c r="R34" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="S34" s="4" t="n">
+        <v>24</v>
+      </c>
+      <c r="T34" s="4" t="n">
+        <v>0.469598244871982</v>
+      </c>
+      <c r="U34" s="4" t="n">
+        <v>45</v>
+      </c>
+      <c r="V34" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="W34" s="4" t="n">
+        <v>0.4326916826180974</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -3603,6 +5043,33 @@
       <c r="N35" s="4" t="n">
         <v>1.606327330127846</v>
       </c>
+      <c r="O35" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="P35" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q35" s="4" t="n">
+        <v>0.764405274442761</v>
+      </c>
+      <c r="R35" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="S35" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="T35" s="4" t="n">
+        <v>-0.6304195616089624</v>
+      </c>
+      <c r="U35" s="4" t="n">
+        <v>45</v>
+      </c>
+      <c r="V35" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="W35" s="4" t="n">
+        <v>-0.1838939651126913</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -3649,6 +5116,33 @@
       <c r="N36" s="4" t="n">
         <v>-0.4829762710719968</v>
       </c>
+      <c r="O36" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="P36" s="4" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q36" s="4" t="n">
+        <v>-0.2007773347428769</v>
+      </c>
+      <c r="R36" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="S36" s="4" t="n">
+        <v>17</v>
+      </c>
+      <c r="T36" s="4" t="n">
+        <v>-0.3859711601687525</v>
+      </c>
+      <c r="U36" s="4" t="n">
+        <v>45</v>
+      </c>
+      <c r="V36" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="W36" s="4" t="n">
+        <v>-0.1838939651126913</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -3695,6 +5189,33 @@
       <c r="N37" s="4" t="n">
         <v>-0.05282552964849982</v>
       </c>
+      <c r="O37" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="P37" s="4" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q37" s="4" t="n">
+        <v>-0.476543794510202</v>
+      </c>
+      <c r="R37" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="S37" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="T37" s="4" t="n">
+        <v>-0.9970921637692771</v>
+      </c>
+      <c r="U37" s="4" t="n">
+        <v>45</v>
+      </c>
+      <c r="V37" s="4" t="n">
+        <v>35</v>
+      </c>
+      <c r="W37" s="4" t="n">
+        <v>1.665862978079675</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -3735,6 +5256,33 @@
       <c r="N38" s="4" t="n">
         <v>0.7460258472808516</v>
       </c>
+      <c r="O38" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="P38" s="4" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q38" s="4" t="n">
+        <v>-0.2007773347428769</v>
+      </c>
+      <c r="R38" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="S38" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="T38" s="4" t="n">
+        <v>0.5918224455920869</v>
+      </c>
+      <c r="U38" s="4" t="n">
+        <v>45</v>
+      </c>
+      <c r="V38" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="W38" s="4" t="n">
+        <v>-0.1838939651126913</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -3781,6 +5329,33 @@
       <c r="N39" s="4" t="n">
         <v>-0.667326588824924</v>
       </c>
+      <c r="O39" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="P39" s="4" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q39" s="4" t="n">
+        <v>0.9022885043264236</v>
+      </c>
+      <c r="R39" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="S39" s="4" t="n">
+        <v>19</v>
+      </c>
+      <c r="T39" s="4" t="n">
+        <v>-0.1415227587285427</v>
+      </c>
+      <c r="U39" s="4" t="n">
+        <v>45</v>
+      </c>
+      <c r="V39" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="W39" s="4" t="n">
+        <v>0.4326916826180974</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -3827,6 +5402,33 @@
       <c r="N40" s="4" t="n">
         <v>1.360526906457276</v>
       </c>
+      <c r="O40" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="P40" s="4" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q40" s="4" t="n">
+        <v>-0.2007773347428769</v>
+      </c>
+      <c r="R40" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="S40" s="4" t="n">
+        <v>29</v>
+      </c>
+      <c r="T40" s="4" t="n">
+        <v>1.080719248472507</v>
+      </c>
+      <c r="U40" s="4" t="n">
+        <v>45</v>
+      </c>
+      <c r="V40" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="W40" s="4" t="n">
+        <v>-0.1838939651126913</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -3873,6 +5475,33 @@
       <c r="N41" s="4" t="n">
         <v>1.053276376869064</v>
       </c>
+      <c r="O41" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="P41" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q41" s="4" t="n">
+        <v>-0.6144270243938645</v>
+      </c>
+      <c r="R41" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="S41" s="4" t="n">
+        <v>22</v>
+      </c>
+      <c r="T41" s="4" t="n">
+        <v>0.2251498434317721</v>
+      </c>
+      <c r="U41" s="4" t="n">
+        <v>45</v>
+      </c>
+      <c r="V41" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="W41" s="4" t="n">
+        <v>0.4326916826180974</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -3913,6 +5542,33 @@
       <c r="N42" s="4" t="n">
         <v>-0.7902268006602089</v>
       </c>
+      <c r="O42" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="P42" s="4" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q42" s="4" t="n">
+        <v>0.2128723549081108</v>
+      </c>
+      <c r="R42" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="S42" s="4" t="n">
+        <v>22</v>
+      </c>
+      <c r="T42" s="4" t="n">
+        <v>0.2251498434317721</v>
+      </c>
+      <c r="U42" s="4" t="n">
+        <v>45</v>
+      </c>
+      <c r="V42" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="W42" s="4" t="n">
+        <v>-0.1838939651126913</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -3959,6 +5615,33 @@
       <c r="N43" s="4" t="n">
         <v>-0.3600760592367119</v>
       </c>
+      <c r="O43" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="P43" s="4" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q43" s="4" t="n">
+        <v>-0.2007773347428769</v>
+      </c>
+      <c r="R43" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="S43" s="4" t="n">
+        <v>27</v>
+      </c>
+      <c r="T43" s="4" t="n">
+        <v>0.8362708470322967</v>
+      </c>
+      <c r="U43" s="4" t="n">
+        <v>45</v>
+      </c>
+      <c r="V43" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="W43" s="4" t="n">
+        <v>-0.1838939651126913</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -4005,6 +5688,33 @@
       <c r="N44" s="4" t="n">
         <v>1.421977012374918</v>
       </c>
+      <c r="O44" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="P44" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q44" s="4" t="n">
+        <v>-0.6144270243938645</v>
+      </c>
+      <c r="R44" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="S44" s="4" t="n">
+        <v>29</v>
+      </c>
+      <c r="T44" s="4" t="n">
+        <v>1.080719248472507</v>
+      </c>
+      <c r="U44" s="4" t="n">
+        <v>45</v>
+      </c>
+      <c r="V44" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="W44" s="4" t="n">
+        <v>1.049277330348886</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -4051,6 +5761,33 @@
       <c r="N45" s="4" t="n">
         <v>-0.4829762710719968</v>
       </c>
+      <c r="O45" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="P45" s="4" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q45" s="4" t="n">
+        <v>0.4886388146754359</v>
+      </c>
+      <c r="R45" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="S45" s="4" t="n">
+        <v>19</v>
+      </c>
+      <c r="T45" s="4" t="n">
+        <v>-0.1415227587285427</v>
+      </c>
+      <c r="U45" s="4" t="n">
+        <v>45</v>
+      </c>
+      <c r="V45" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="W45" s="4" t="n">
+        <v>-1.417065260574269</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -4097,6 +5834,33 @@
       <c r="N46" s="4" t="n">
         <v>0.5616755295279244</v>
       </c>
+      <c r="O46" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="P46" s="4" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q46" s="4" t="n">
+        <v>0.2128723549081108</v>
+      </c>
+      <c r="R46" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="S46" s="4" t="n">
+        <v>29</v>
+      </c>
+      <c r="T46" s="4" t="n">
+        <v>1.080719248472507</v>
+      </c>
+      <c r="U46" s="4" t="n">
+        <v>45</v>
+      </c>
+      <c r="V46" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="W46" s="4" t="n">
+        <v>-0.1838939651126913</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -4143,6 +5907,33 @@
       <c r="N47" s="4" t="n">
         <v>-0.3600760592367119</v>
       </c>
+      <c r="O47" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="P47" s="4" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q47" s="4" t="n">
+        <v>-0.2007773347428769</v>
+      </c>
+      <c r="R47" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="S47" s="4" t="n">
+        <v>27</v>
+      </c>
+      <c r="T47" s="4" t="n">
+        <v>0.8362708470322967</v>
+      </c>
+      <c r="U47" s="4" t="n">
+        <v>45</v>
+      </c>
+      <c r="V47" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="W47" s="4" t="n">
+        <v>0.4326916826180974</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -4189,6 +5980,33 @@
       <c r="N48" s="4" t="n">
         <v>-2.387929554518912</v>
       </c>
+      <c r="O48" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="P48" s="4" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q48" s="4" t="n">
+        <v>0.2128723549081108</v>
+      </c>
+      <c r="R48" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="S48" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="T48" s="4" t="n">
+        <v>-0.01929855800843773</v>
+      </c>
+      <c r="U48" s="4" t="n">
+        <v>45</v>
+      </c>
+      <c r="V48" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="W48" s="4" t="n">
+        <v>-0.1838939651126913</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -4235,6 +6053,33 @@
       <c r="N49" s="4" t="n">
         <v>0.6845757413632093</v>
       </c>
+      <c r="O49" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="P49" s="4" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q49" s="4" t="n">
+        <v>1.591704653744736</v>
+      </c>
+      <c r="R49" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="S49" s="4" t="n">
+        <v>14</v>
+      </c>
+      <c r="T49" s="4" t="n">
+        <v>-0.7526437623290673</v>
+      </c>
+      <c r="U49" s="4" t="n">
+        <v>45</v>
+      </c>
+      <c r="V49" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="W49" s="4" t="n">
+        <v>-0.8004796128434801</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -4281,6 +6126,33 @@
       <c r="N50" s="4" t="n">
         <v>0.1315247881044274</v>
       </c>
+      <c r="O50" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="P50" s="4" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q50" s="4" t="n">
+        <v>-0.2007773347428769</v>
+      </c>
+      <c r="R50" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="S50" s="4" t="n">
+        <v>22</v>
+      </c>
+      <c r="T50" s="4" t="n">
+        <v>0.2251498434317721</v>
+      </c>
+      <c r="U50" s="4" t="n">
+        <v>45</v>
+      </c>
+      <c r="V50" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="W50" s="4" t="n">
+        <v>-0.1838939651126913</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -4327,6 +6199,33 @@
       <c r="N51" s="4" t="n">
         <v>-0.3600760592367119</v>
       </c>
+      <c r="O51" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="P51" s="4" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q51" s="4" t="n">
+        <v>-0.2007773347428769</v>
+      </c>
+      <c r="R51" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="S51" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="T51" s="4" t="n">
+        <v>0.5918224455920869</v>
+      </c>
+      <c r="U51" s="4" t="n">
+        <v>45</v>
+      </c>
+      <c r="V51" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="W51" s="4" t="n">
+        <v>1.049277330348886</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -4373,6 +6272,33 @@
       <c r="N52" s="4" t="n">
         <v>0.008624576269142604</v>
       </c>
+      <c r="O52" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="P52" s="4" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q52" s="4" t="n">
+        <v>0.4886388146754359</v>
+      </c>
+      <c r="R52" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="S52" s="4" t="n">
+        <v>22</v>
+      </c>
+      <c r="T52" s="4" t="n">
+        <v>0.2251498434317721</v>
+      </c>
+      <c r="U52" s="4" t="n">
+        <v>45</v>
+      </c>
+      <c r="V52" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="W52" s="4" t="n">
+        <v>0.4326916826180974</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -4419,6 +6345,33 @@
       <c r="N53" s="4" t="n">
         <v>-0.3600760592367119</v>
       </c>
+      <c r="O53" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="P53" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="4" t="n">
+        <v>-2.682675472648803</v>
+      </c>
+      <c r="R53" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="S53" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="T53" s="4" t="n">
+        <v>0.5918224455920869</v>
+      </c>
+      <c r="U53" s="4" t="n">
+        <v>45</v>
+      </c>
+      <c r="V53" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" s="4" t="n">
+        <v>-2.650236556035846</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -4465,6 +6418,33 @@
       <c r="N54" s="4" t="n">
         <v>-2.387929554518912</v>
       </c>
+      <c r="O54" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="P54" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="4" t="n">
+        <v>-2.682675472648803</v>
+      </c>
+      <c r="R54" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="S54" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T54" s="4" t="n">
+        <v>-2.463782572410536</v>
+      </c>
+      <c r="U54" s="4" t="n">
+        <v>45</v>
+      </c>
+      <c r="V54" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" s="4" t="n">
+        <v>-2.650236556035846</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -4511,6 +6491,33 @@
       <c r="N55" s="4" t="n">
         <v>0.5616755295279244</v>
       </c>
+      <c r="O55" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="P55" s="4" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q55" s="4" t="n">
+        <v>-0.2007773347428769</v>
+      </c>
+      <c r="R55" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="S55" s="4" t="n">
+        <v>34</v>
+      </c>
+      <c r="T55" s="4" t="n">
+        <v>1.691840252073031</v>
+      </c>
+      <c r="U55" s="4" t="n">
+        <v>45</v>
+      </c>
+      <c r="V55" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="W55" s="4" t="n">
+        <v>1.049277330348886</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -4557,6 +6564,33 @@
       <c r="N56" s="4" t="n">
         <v>-0.4829762710719968</v>
       </c>
+      <c r="O56" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="P56" s="4" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q56" s="4" t="n">
+        <v>0.4886388146754359</v>
+      </c>
+      <c r="R56" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="S56" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" s="4" t="n">
+        <v>-1.852661568810012</v>
+      </c>
+      <c r="U56" s="4" t="n">
+        <v>45</v>
+      </c>
+      <c r="V56" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="W56" s="4" t="n">
+        <v>0.4326916826180974</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -4603,6 +6637,33 @@
       <c r="N57" s="4" t="n">
         <v>-0.1757257414837847</v>
       </c>
+      <c r="O57" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="P57" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q57" s="4" t="n">
+        <v>-0.8901934841611897</v>
+      </c>
+      <c r="R57" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="S57" s="4" t="n">
+        <v>19</v>
+      </c>
+      <c r="T57" s="4" t="n">
+        <v>-0.1415227587285427</v>
+      </c>
+      <c r="U57" s="4" t="n">
+        <v>45</v>
+      </c>
+      <c r="V57" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="W57" s="4" t="n">
+        <v>-0.1838939651126913</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -4649,6 +6710,27 @@
       <c r="N58" s="4" t="n">
         <v>-2.387929554518912</v>
       </c>
+      <c r="O58" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="P58" s="4" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q58" s="4" t="n">
+        <v>0.2128723549081108</v>
+      </c>
+      <c r="R58" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="S58" s="4" t="n">
+        <v>27</v>
+      </c>
+      <c r="T58" s="4" t="n">
+        <v>0.8362708470322967</v>
+      </c>
+      <c r="U58" s="4" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -4695,13 +6777,43 @@
       <c r="N59" s="4" t="n">
         <v>-2.387929554518912</v>
       </c>
+      <c r="O59" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="P59" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="4" t="n">
+        <v>-2.682675472648803</v>
+      </c>
+      <c r="R59" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="S59" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T59" s="4" t="n">
+        <v>-2.463782572410536</v>
+      </c>
+      <c r="U59" s="4" t="n">
+        <v>45</v>
+      </c>
+      <c r="V59" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" s="4" t="n">
+        <v>-2.650236556035846</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
+    <mergeCell ref="L1:N1"/>
     <mergeCell ref="C1:E1"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="U1:W1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="R1:T1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
